--- a/data/trans_bre/P38C-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Clase-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 10,31</t>
+          <t>1,6; 10,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 8,51</t>
+          <t>-1,25; 7,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,51; 12,47</t>
+          <t>1,85; 12,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 10,51</t>
+          <t>-1,42; 9,63</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 6,97</t>
+          <t>-2,23; 7,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 7,22</t>
+          <t>-2,54; 7,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 8,45</t>
+          <t>-2,55; 9,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 8,72</t>
+          <t>-2,91; 8,5</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 7,88</t>
+          <t>-4,4; 8,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 72,33</t>
+          <t>3,42; 71,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 9,27</t>
+          <t>-5,03; 9,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,98; 377,63</t>
+          <t>3,87; 376,02</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,22</t>
+          <t>-1,27; 5,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 15,76</t>
+          <t>5,18; 15,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 6,39</t>
+          <t>-1,51; 6,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 20,17</t>
+          <t>6,24; 19,14</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,87; 11,02</t>
+          <t>2,74; 10,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 11,44</t>
+          <t>-20,05; 11,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,42; 14,27</t>
+          <t>3,36; 13,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 14,74</t>
+          <t>-24,79; 14,88</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,67; 39,05</t>
+          <t>26,44; 39,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23,96; 46,65</t>
+          <t>24,47; 47,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,47; 80,69</t>
+          <t>44,22; 81,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>41,31; 125,7</t>
+          <t>42,77; 132,47</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,69</t>
+          <t>4,21; 7,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,02; 31,79</t>
+          <t>4,7; 31,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,57</t>
+          <t>5,15; 9,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 56,08</t>
+          <t>5,71; 55,05</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38C-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Clase-trans_bre.xlsx
@@ -871,7 +871,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
